--- a/Hardware/LAB-PPS330D/docs/LAB-PPS330DR0-Rev1BOM.xlsx
+++ b/Hardware/LAB-PPS330D/docs/LAB-PPS330DR0-Rev1BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6336" yWindow="-24" windowWidth="18348" windowHeight="13440" activeTab="1"/>
+    <workbookView xWindow="8580" yWindow="-24" windowWidth="18348" windowHeight="13440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -351,12 +350,6 @@
     <t>8-DSBGA</t>
   </si>
   <si>
-    <t>296-21059-1-ND</t>
-  </si>
-  <si>
-    <t>SN74LVC1G139YZPR</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -375,12 +368,6 @@
     <t>MOSFET N/P-CH 20V 3A/2.2A SSOT-6</t>
   </si>
   <si>
-    <t>FDC6420CDKR-ND</t>
-  </si>
-  <si>
-    <t>FDC6312PDKR-ND</t>
-  </si>
-  <si>
     <t>MOSFET 2P-CH 20V 2.3A SSOT-6</t>
   </si>
   <si>
@@ -391,6 +378,18 @@
   </si>
   <si>
     <t>U4</t>
+  </si>
+  <si>
+    <t>296-18203-1-ND</t>
+  </si>
+  <si>
+    <t>FDC6312PCT-ND</t>
+  </si>
+  <si>
+    <t>FDC6420CCT-ND</t>
+  </si>
+  <si>
+    <t>SN74LVC1G139DCU</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1459,7 @@
         <v>83</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="3"/>
@@ -1515,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>98</v>
@@ -1564,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>92</v>
@@ -1585,7 +1584,7 @@
         <v>104</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1593,19 +1592,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>119</v>
-      </c>
       <c r="E12" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G12" s="21">
         <v>2</v>
@@ -1615,7 +1614,7 @@
         <v>104</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1623,19 +1622,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>120</v>
-      </c>
       <c r="F13" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G13" s="21">
         <v>1</v>
@@ -1645,7 +1644,7 @@
         <v>104</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1921,11 +1920,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J10" r:id="rId1" display="http://www.digikey.com/product-detail/en/PRPC040SAAN-RC/S1011EC-40-ND/2775214"/>
-    <hyperlink ref="J11" r:id="rId2" display="http://www.digikey.com/product-detail/en/SN74LVC1G139YZPR/296-21059-1-ND/1217016"/>
-    <hyperlink ref="B12" r:id="rId3" display="http://www.digikey.com/product-detail/en/FDC6312P/FDC6312PTR-ND/979786"/>
-    <hyperlink ref="B13" r:id="rId4" display="http://www.digikey.com/product-detail/en/FDC6420C/FDC6420CDKR-ND/1849945"/>
-    <hyperlink ref="J13" r:id="rId5" display="http://www.digikey.com/product-detail/en/FDC6420C/FDC6420CDKR-ND/1849945"/>
-    <hyperlink ref="J12" r:id="rId6" display="http://www.digikey.com/product-detail/en/FDC6312P/FDC6312PDKR-ND/1626343"/>
+    <hyperlink ref="B12" r:id="rId2" display="http://www.digikey.com/product-detail/en/FDC6312P/FDC6312PTR-ND/979786"/>
+    <hyperlink ref="B13" r:id="rId3" display="http://www.digikey.com/product-detail/en/FDC6420C/FDC6420CDKR-ND/1849945"/>
+    <hyperlink ref="J11" r:id="rId4" display="http://www.digikey.com/product-detail/en/SN74LVC1G139DCUR/296-18203-1-ND/772127"/>
+    <hyperlink ref="J12" r:id="rId5" display="http://www.digikey.com/product-detail/en/FDC6312P/FDC6312PCT-ND/1626187"/>
+    <hyperlink ref="J13" r:id="rId6" display="http://www.digikey.com/product-detail/en/FDC6420C/FDC6420CCT-ND/1849901"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId7"/>

--- a/Hardware/LAB-PPS330D/docs/LAB-PPS330DR0-Rev1BOM.xlsx
+++ b/Hardware/LAB-PPS330D/docs/LAB-PPS330DR0-Rev1BOM.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drmoore\Documents\PEGMA\Hardware\LAB-PPS330D\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="-24" windowWidth="18348" windowHeight="13440" activeTab="1"/>
+    <workbookView xWindow="8580" yWindow="-30" windowWidth="18345" windowHeight="13440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
   <si>
     <t>Qty Value                 Device                Package          Parts                                                                                                                                                                                                                                                                                                                                                                                                                        Description                                        MF                   MPN           OC_FARNELL OC_NEWARK</t>
   </si>
@@ -390,6 +385,36 @@
   </si>
   <si>
     <t>SN74LVC1G139DCU</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ102V</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>SMT-0603</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>P1.0KGCT-ND</t>
+  </si>
+  <si>
+    <t>LNJ237W82RA</t>
+  </si>
+  <si>
+    <t>LED RED HIGH BRIGHT ESS SMD</t>
+  </si>
+  <si>
+    <t>V0, V1, V2</t>
+  </si>
+  <si>
+    <t>LNJ237W82RACT-ND </t>
   </si>
 </sst>
 </file>
@@ -715,7 +740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -750,7 +775,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -965,7 +990,7 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1373,23 +1398,23 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
-    <col min="2" max="3" width="31.21875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="12" customWidth="1"/>
+    <col min="2" max="3" width="31.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="12" customWidth="1"/>
     <col min="6" max="6" width="21" style="13" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="27.21875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="34.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1399,7 +1424,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="25" t="s">
         <v>79</v>
@@ -1411,7 +1436,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>80</v>
@@ -1425,7 +1450,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>81</v>
@@ -1439,7 +1464,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>82</v>
@@ -1453,7 +1478,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
         <v>83</v>
@@ -1467,7 +1492,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1477,7 +1502,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
@@ -1509,7 +1534,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>1</v>
       </c>
@@ -1528,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>2</v>
       </c>
@@ -1558,7 +1583,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>3</v>
       </c>
@@ -1587,7 +1612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>4</v>
       </c>
@@ -1617,7 +1642,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>5</v>
       </c>
@@ -1647,23 +1672,67 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="21">
+        <v>3</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="17"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1671,7 +1740,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1679,7 +1748,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1687,7 +1756,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1695,7 +1764,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1703,7 +1772,7 @@
       <c r="F20" s="16"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1711,7 +1780,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1719,7 +1788,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1727,7 +1796,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -1735,7 +1804,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1743,7 +1812,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1751,7 +1820,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1759,7 +1828,7 @@
       <c r="F27" s="16"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="15"/>
@@ -1767,7 +1836,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1775,7 +1844,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -1783,7 +1852,7 @@
       <c r="F30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -1791,7 +1860,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -1799,7 +1868,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1807,7 +1876,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -1838,76 +1907,76 @@
       <c r="B41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
     </row>
-    <row r="51" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
     </row>
-    <row r="56" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
     </row>
-    <row r="57" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
     </row>
-    <row r="58" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
     </row>
-    <row r="59" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
     </row>
-    <row r="60" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
     </row>
-    <row r="63" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
     </row>
-    <row r="64" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="8"/>
     </row>
-    <row r="65" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
     </row>
   </sheetData>
@@ -1925,9 +1994,11 @@
     <hyperlink ref="J11" r:id="rId4" display="http://www.digikey.com/product-detail/en/SN74LVC1G139DCUR/296-18203-1-ND/772127"/>
     <hyperlink ref="J12" r:id="rId5" display="http://www.digikey.com/product-detail/en/FDC6312P/FDC6312PCT-ND/1626187"/>
     <hyperlink ref="J13" r:id="rId6" display="http://www.digikey.com/product-detail/en/FDC6420C/FDC6420CCT-ND/1849901"/>
+    <hyperlink ref="J14" r:id="rId7" display="http://www.digikey.com/product-detail/en/ERJ-3GEYJ102V/P1.0KGCT-ND/134874"/>
+    <hyperlink ref="J15" r:id="rId8" display="http://www.digikey.com/product-detail/en/LNJ237W82RA/LNJ237W82RACT-ND/2349015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1937,7 +2008,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
